--- a/doc/interface/onion-api.xlsx
+++ b/doc/interface/onion-api.xlsx
@@ -53,9 +53,6 @@
     <t>GET</t>
   </si>
   <si>
-    <t>/meetings</t>
-  </si>
-  <si>
     <t>cityId</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>get meeting</t>
   </si>
   <si>
-    <t>/meetings/${meetingId}</t>
-  </si>
-  <si>
     <t>example</t>
   </si>
   <si>
@@ -283,6 +277,12 @@
   </si>
   <si>
     <t>meeting.seller.rating</t>
+  </si>
+  <si>
+    <t>/api/v1/meetings</t>
+  </si>
+  <si>
+    <t>/api/v1/meetings/${meetingId}</t>
   </si>
 </sst>
 </file>
@@ -1032,17 +1032,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -1054,7 +1054,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16" thickTop="1">
@@ -1089,33 +1089,33 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1145,24 +1145,24 @@
     </row>
     <row r="6" spans="1:10">
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1192,10 +1192,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1203,10 +1203,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="E11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1214,10 +1214,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="E12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1225,10 +1225,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="E13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="E14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1247,10 +1247,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="E15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1258,10 +1258,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="E16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1281,30 +1281,30 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="E20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="E21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1334,24 +1334,24 @@
     </row>
     <row r="22" spans="1:10">
       <c r="E22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1359,10 +1359,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="E24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="E25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1381,10 +1381,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="E26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="E27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1403,10 +1403,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="E28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="E29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="30" spans="1:10">
       <c r="E30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1436,10 +1436,10 @@
     </row>
     <row r="31" spans="1:10">
       <c r="E31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="32" spans="1:10">
       <c r="E32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="E33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -1469,10 +1469,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="E34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -1480,10 +1480,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="E35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -1491,10 +1491,10 @@
     </row>
     <row r="36" spans="1:10">
       <c r="E36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -1502,10 +1502,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="E37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -1513,10 +1513,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="E38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="39" spans="1:10">
       <c r="E39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -1535,10 +1535,10 @@
     </row>
     <row r="40" spans="1:10">
       <c r="E40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -1558,22 +1558,22 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -1582,10 +1582,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="E43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -1594,24 +1594,24 @@
     </row>
     <row r="44" spans="1:10">
       <c r="E44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="E45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="46" spans="1:10">
       <c r="E46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="47" spans="1:10">
       <c r="E47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="48" spans="1:10">
       <c r="E48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="49" spans="1:10">
       <c r="E49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -1663,10 +1663,10 @@
     </row>
     <row r="50" spans="1:10">
       <c r="E50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="51" spans="1:10">
       <c r="E51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="52" spans="1:10">
       <c r="E52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -1696,10 +1696,10 @@
     </row>
     <row r="53" spans="1:10">
       <c r="E53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="54" spans="1:10">
       <c r="E54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="55" spans="1:10">
       <c r="E55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -1729,10 +1729,10 @@
     </row>
     <row r="56" spans="1:10">
       <c r="E56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="57" spans="1:10">
       <c r="E57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="58" spans="1:10">
       <c r="E58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="59" spans="1:10">
       <c r="E59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -1773,10 +1773,10 @@
     </row>
     <row r="60" spans="1:10">
       <c r="E60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -1784,13 +1784,13 @@
     </row>
     <row r="61" spans="1:10">
       <c r="D61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="62" spans="1:10">
       <c r="E62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
@@ -1821,22 +1821,22 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="65" spans="5:8">
       <c r="E65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
@@ -1855,10 +1855,10 @@
     </row>
     <row r="66" spans="5:8">
       <c r="E66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
@@ -1866,24 +1866,24 @@
     </row>
     <row r="67" spans="5:8">
       <c r="E67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="5:8">
       <c r="E68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
@@ -1891,10 +1891,10 @@
     </row>
     <row r="69" spans="5:8">
       <c r="E69" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="70" spans="5:8">
       <c r="E70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
@@ -1913,10 +1913,10 @@
     </row>
     <row r="71" spans="5:8">
       <c r="E71" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
@@ -1924,10 +1924,10 @@
     </row>
     <row r="72" spans="5:8">
       <c r="E72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
@@ -1935,10 +1935,10 @@
     </row>
     <row r="73" spans="5:8">
       <c r="E73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
@@ -1946,10 +1946,10 @@
     </row>
     <row r="74" spans="5:8">
       <c r="E74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
@@ -1957,10 +1957,10 @@
     </row>
     <row r="75" spans="5:8">
       <c r="E75" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="76" spans="5:8">
       <c r="E76" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="77" spans="5:8">
       <c r="E77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
@@ -1990,10 +1990,10 @@
     </row>
     <row r="78" spans="5:8">
       <c r="E78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
@@ -2001,10 +2001,10 @@
     </row>
     <row r="79" spans="5:8">
       <c r="E79" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
@@ -2012,10 +2012,10 @@
     </row>
     <row r="80" spans="5:8">
       <c r="E80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
@@ -2023,10 +2023,10 @@
     </row>
     <row r="81" spans="1:10">
       <c r="E81" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
@@ -2034,10 +2034,10 @@
     </row>
     <row r="82" spans="1:10">
       <c r="E82" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
@@ -2045,10 +2045,10 @@
     </row>
     <row r="83" spans="1:10">
       <c r="E83" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
@@ -2056,10 +2056,10 @@
     </row>
     <row r="84" spans="1:10">
       <c r="E84" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
@@ -2067,10 +2067,10 @@
     </row>
     <row r="85" spans="1:10">
       <c r="E85" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
@@ -2078,13 +2078,13 @@
     </row>
     <row r="86" spans="1:10">
       <c r="D86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="87" spans="1:10">
       <c r="E87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
@@ -2115,27 +2115,27 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" t="s">
         <v>61</v>
       </c>
-      <c r="B89" t="s">
-        <v>63</v>
-      </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="D90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="91" spans="1:10">
       <c r="E91" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2225,32 +2225,32 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16" thickTop="1">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -2258,15 +2258,15 @@
     </row>
     <row r="4" spans="1:10">
       <c r="E4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -2285,24 +2285,24 @@
     </row>
     <row r="7" spans="1:10">
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -2321,10 +2321,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -2332,10 +2332,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
         <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -2354,10 +2354,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -2376,10 +2376,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -2387,10 +2387,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -2398,10 +2398,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>

--- a/doc/interface/onion-api.xlsx
+++ b/doc/interface/onion-api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-24440" windowWidth="38400" windowHeight="24000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="meetings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="84">
   <si>
     <t>function type</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>GET</t>
+  </si>
+  <si>
+    <t>/meetings</t>
   </si>
   <si>
     <t>cityId</t>
@@ -156,6 +159,9 @@
     <t>get meeting</t>
   </si>
   <si>
+    <t>/meetings/${meetingId}</t>
+  </si>
+  <si>
     <t>example</t>
   </si>
   <si>
@@ -279,17 +285,23 @@
     <t>meeting.seller.rating</t>
   </si>
   <si>
-    <t>/api/v1/meetings</t>
-  </si>
-  <si>
-    <t>/api/v1/meetings/${meetingId}</t>
+    <t>meeting.location.cityId</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>remove</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -342,8 +354,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +387,21 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -375,7 +423,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="159">
+  <cellStyleXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -535,15 +583,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="160"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="161"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="159"/>
   </cellXfs>
-  <cellStyles count="159">
+  <cellStyles count="178">
     <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
+    <cellStyle name="Bad" xfId="160" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -622,6 +694,15 @@
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="159" builtinId="26"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -701,6 +782,15 @@
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="161" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1030,31 +1120,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G60" sqref="E60:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1">
+    <row r="1" spans="1:13" ht="17" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1078,10 +1168,11 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16" thickTop="1">
+        <v>39</v>
+      </c>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="16" thickTop="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1089,179 +1180,188 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="M3" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="M4" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="M5" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:13">
       <c r="E10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:13">
       <c r="E11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:13">
       <c r="E12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:13">
       <c r="E13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:13">
       <c r="E14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:13">
       <c r="E15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:13">
       <c r="E16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1281,30 +1381,30 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="D19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1312,10 +1412,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="E20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1323,10 +1423,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="E21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1334,24 +1434,24 @@
     </row>
     <row r="22" spans="1:10">
       <c r="E22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="E23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1359,10 +1459,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="E24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1370,10 +1470,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="E25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1381,10 +1481,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="E26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1392,10 +1492,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="E27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1403,10 +1503,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="E28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1414,10 +1514,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="E29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1425,10 +1525,10 @@
     </row>
     <row r="30" spans="1:10">
       <c r="E30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1436,10 +1536,10 @@
     </row>
     <row r="31" spans="1:10">
       <c r="E31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1447,10 +1547,10 @@
     </row>
     <row r="32" spans="1:10">
       <c r="E32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1458,10 +1558,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="E33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -1469,10 +1569,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="E34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -1480,10 +1580,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="E35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -1491,10 +1591,10 @@
     </row>
     <row r="36" spans="1:10">
       <c r="E36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -1502,10 +1602,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="E37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -1513,79 +1613,78 @@
     </row>
     <row r="38" spans="1:10">
       <c r="E38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="E39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="b">
+      <c r="E39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="E40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="E41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
       <c r="E43" t="s">
         <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -1594,35 +1693,36 @@
     </row>
     <row r="44" spans="1:10">
       <c r="E44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10">
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -1630,392 +1730,392 @@
     </row>
     <row r="47" spans="1:10">
       <c r="E47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="E48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="E49" t="s">
-        <v>72</v>
-      </c>
-      <c r="F49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="E48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7">
+      <c r="E49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7">
       <c r="E50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7">
+      <c r="E51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7">
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7">
+      <c r="E53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7">
+      <c r="E54" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7">
+      <c r="E55" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7">
+      <c r="E56" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7">
+      <c r="E57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57" t="s">
         <v>20</v>
       </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="E51" t="s">
-        <v>74</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7">
+      <c r="E58" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" t="s">
         <v>20</v>
       </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="E52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="E53" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="E54" t="s">
-        <v>77</v>
-      </c>
-      <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="E55" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="E56" t="s">
-        <v>48</v>
-      </c>
-      <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="E57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="E58" t="s">
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7">
+      <c r="E59" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7">
+      <c r="E60" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7">
+      <c r="E61" t="s">
         <v>52</v>
       </c>
-      <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="E59" t="s">
-        <v>50</v>
-      </c>
-      <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="E60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="D61" t="s">
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7">
+      <c r="E62" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7">
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7">
+      <c r="E64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
         <v>15</v>
       </c>
-      <c r="E61" t="s">
-        <v>57</v>
-      </c>
-      <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="E62" t="s">
-        <v>58</v>
-      </c>
-      <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s">
-        <v>39</v>
-      </c>
-      <c r="F64" t="s">
-        <v>30</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="5:8">
-      <c r="E65" t="s">
-        <v>40</v>
-      </c>
-      <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="5:8">
       <c r="E66" t="s">
         <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="5:8">
+    <row r="67" spans="1:10">
       <c r="E67" t="s">
         <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="5:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="E68" t="s">
         <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:8">
+    <row r="69" spans="1:10">
       <c r="E69" t="s">
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="5:8">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="E70" t="s">
         <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:8">
+    <row r="71" spans="1:10">
       <c r="E71" t="s">
         <v>46</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="5:8">
-      <c r="E72" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="5:8">
-      <c r="E73" t="s">
-        <v>73</v>
-      </c>
-      <c r="F73" t="s">
+    <row r="72" spans="1:10">
+      <c r="E72" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="5:8">
+      <c r="G72" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="E73" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="E74" t="s">
         <v>74</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="5:8">
+    <row r="75" spans="1:10">
       <c r="E75" t="s">
         <v>75</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="5:8">
+    <row r="76" spans="1:10">
       <c r="E76" t="s">
         <v>76</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:8">
+    <row r="77" spans="1:10">
       <c r="E77" t="s">
         <v>77</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="5:8">
+    <row r="78" spans="1:10">
       <c r="E78" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="5:8">
+    <row r="79" spans="1:10">
       <c r="E79" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="5:8">
+    <row r="80" spans="1:10">
       <c r="E80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
@@ -2023,10 +2123,10 @@
     </row>
     <row r="81" spans="1:10">
       <c r="E81" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
@@ -2034,10 +2134,10 @@
     </row>
     <row r="82" spans="1:10">
       <c r="E82" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
@@ -2045,7 +2145,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="E83" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -2056,10 +2156,10 @@
     </row>
     <row r="84" spans="1:10">
       <c r="E84" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
@@ -2067,24 +2167,21 @@
     </row>
     <row r="85" spans="1:10">
       <c r="E85" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="D86" t="s">
-        <v>15</v>
-      </c>
       <c r="E86" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
@@ -2092,77 +2189,102 @@
     </row>
     <row r="87" spans="1:10">
       <c r="E87" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
+        <v>59</v>
+      </c>
+      <c r="F88" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" t="s">
+      <c r="E89" t="s">
+        <v>60</v>
+      </c>
+      <c r="F89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
         <v>59</v>
       </c>
-      <c r="B89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C89" t="s">
-        <v>79</v>
-      </c>
-      <c r="D89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="D90" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" t="s">
-        <v>57</v>
-      </c>
-      <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="E91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
+      <c r="F92" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="E93" t="s">
+        <v>60</v>
+      </c>
+      <c r="F93" t="s">
+        <v>21</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2201,7 +2323,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2225,32 +2347,32 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16" thickTop="1">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -2258,15 +2380,15 @@
     </row>
     <row r="4" spans="1:10">
       <c r="E4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -2274,10 +2396,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -2285,24 +2407,24 @@
     </row>
     <row r="7" spans="1:10">
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -2310,10 +2432,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="E9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -2321,10 +2443,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -2332,10 +2454,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -2343,10 +2465,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="E12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -2354,10 +2476,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -2365,10 +2487,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="E14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -2376,10 +2498,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="E15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -2387,10 +2509,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="E16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -2398,10 +2520,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="E17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
